--- a/Phase3_Hospitals_Hip_Knee_Reports/Worse_Report_MORT_7_1_2013_to_6_30_2016.xlsx
+++ b/Phase3_Hospitals_Hip_Knee_Reports/Worse_Report_MORT_7_1_2013_to_6_30_2016.xlsx
@@ -15431,6 +15431,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -22409,6 +22412,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26399,6 +26405,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27361,6 +27370,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31309,6 +31321,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35870,6 +35885,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
